--- a/src/main/java/test/myorig.xlsx
+++ b/src/main/java/test/myorig.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.190.250\c$\Users\VManager\Desktop\VirtualBox Shared Folder\XLSX\V1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.190.250\c$\Users\VManager\Desktop\VirtualBox Shared Folder\XLSX\V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="1">
   <si>
     <t>asdf</t>
   </si>
@@ -381,7 +381,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,8 +396,24 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
       <c r="J5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
         <v>0</v>
       </c>
     </row>
